--- a/Test protocol/Sprint_3/FI/System Test protocol_Braille DP2_Sprint 3_FI.xlsx
+++ b/Test protocol/Sprint_3/FI/System Test protocol_Braille DP2_Sprint 3_FI.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denis Viro\Documents\GitHub\testing\Test protocol\Sprint_3\FI\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14232" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name=" Background and Preparation" sheetId="1" r:id="rId1"/>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="129">
   <si>
     <t>Requirement ID:</t>
   </si>
@@ -674,12 +679,18 @@
       <t xml:space="preserve">. And we want never the hexadecimal codes to be in the Braille, like &amp;#xbb;. is in this case. </t>
     </r>
   </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>It looks otherwise good but in my brf file there is always two page breaks when there should be one. So the double sided becomes always one sided. The printed lines alternate though.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -962,12 +973,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="20 % - Aksentti3" xfId="4" builtinId="38"/>
-    <cellStyle name="Hyperlinkki" xfId="5" builtinId="8"/>
-    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
-    <cellStyle name="Otsikko" xfId="1" builtinId="15"/>
-    <cellStyle name="Otsikko 2" xfId="2" builtinId="17"/>
-    <cellStyle name="Otsikko 4" xfId="3" builtinId="19"/>
+    <cellStyle name="20% - Accent3" xfId="4" builtinId="38"/>
+    <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
+    <cellStyle name="Heading 4" xfId="3" builtinId="19"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Title" xfId="1" builtinId="15"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1242,7 +1253,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1257,104 +1268,104 @@
       <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="101" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:1" ht="24" thickBot="1">
       <c r="A1" s="29" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="15" thickTop="1">
       <c r="A2" s="39"/>
     </row>
-    <row r="3" spans="1:1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" ht="18" thickBot="1">
       <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="43.9" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" ht="43.8" thickTop="1">
       <c r="A4" s="35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" ht="18" thickBot="1">
       <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" ht="15" thickTop="1">
       <c r="A7" s="36" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1">
       <c r="A8" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1">
       <c r="A9" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1">
       <c r="A10" s="28"/>
     </row>
-    <row r="11" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1">
       <c r="A11" s="36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1">
       <c r="A12" s="34" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1">
       <c r="A13" s="34"/>
     </row>
-    <row r="14" spans="1:1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" ht="18" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" ht="15" thickTop="1">
       <c r="A15" s="36" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1">
       <c r="A16" s="27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1">
       <c r="A17" s="27"/>
     </row>
-    <row r="18" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1">
       <c r="A18" s="36" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1">
       <c r="A19" s="36" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" ht="18" thickBot="1">
       <c r="A21" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="144.6" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" ht="144.6" thickTop="1">
       <c r="A22" s="35" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1">
       <c r="A23" s="31"/>
     </row>
   </sheetData>
@@ -1377,16 +1388,16 @@
       <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="33" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="19" customFormat="1" ht="23.45" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" s="19" customFormat="1" ht="23.4">
       <c r="A1" s="15" t="s">
         <v>8</v>
       </c>
@@ -1395,13 +1406,13 @@
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
     </row>
-    <row r="2" spans="1:5" s="23" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="23" customFormat="1">
       <c r="B2" s="21"/>
       <c r="C2" s="20"/>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
     </row>
-    <row r="3" spans="1:5" s="23" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="23" customFormat="1">
       <c r="A3" s="20" t="s">
         <v>9</v>
       </c>
@@ -1416,7 +1427,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="23" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="23" customFormat="1">
       <c r="A4" s="20" t="s">
         <v>11</v>
       </c>
@@ -1431,7 +1442,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="26" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="26" customFormat="1">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
@@ -1440,21 +1451,21 @@
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
     </row>
-    <row r="6" spans="1:5" s="39" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="39" customFormat="1">
       <c r="A6" s="37"/>
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
       <c r="D6" s="37"/>
       <c r="E6" s="37"/>
     </row>
-    <row r="7" spans="1:5" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" s="5" customFormat="1" ht="18" thickBot="1">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:5" s="7" customFormat="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" s="7" customFormat="1" ht="15" thickTop="1">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1463,7 +1474,7 @@
       </c>
       <c r="C8" s="9"/>
     </row>
-    <row r="9" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" s="7" customFormat="1">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -1472,7 +1483,7 @@
       </c>
       <c r="C9" s="9"/>
     </row>
-    <row r="10" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" s="7" customFormat="1">
       <c r="A10" s="7" t="s">
         <v>2</v>
       </c>
@@ -1481,7 +1492,7 @@
       </c>
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="7" customFormat="1">
       <c r="A11" s="7" t="s">
         <v>3</v>
       </c>
@@ -1490,7 +1501,7 @@
       </c>
       <c r="C11" s="9"/>
     </row>
-    <row r="12" spans="1:5" s="7" customFormat="1" ht="244.9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" s="7" customFormat="1" ht="244.8">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -1501,14 +1512,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" s="7" customFormat="1">
       <c r="A13" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="9"/>
     </row>
-    <row r="14" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" s="7" customFormat="1">
       <c r="A14" s="7" t="s">
         <v>6</v>
       </c>
@@ -1517,25 +1528,25 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" s="7" customFormat="1">
       <c r="A15" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15"/>
     </row>
-    <row r="16" spans="1:5" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" s="30" customFormat="1">
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
     </row>
-    <row r="17" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="8"/>
     </row>
-    <row r="18" spans="1:3" s="7" customFormat="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1">
       <c r="A18" s="7" t="s">
         <v>0</v>
       </c>
@@ -1544,7 +1555,7 @@
       </c>
       <c r="C18" s="9"/>
     </row>
-    <row r="19" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" s="7" customFormat="1">
       <c r="A19" s="7" t="s">
         <v>1</v>
       </c>
@@ -1553,7 +1564,7 @@
       </c>
       <c r="C19" s="9"/>
     </row>
-    <row r="20" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" s="7" customFormat="1">
       <c r="A20" s="7" t="s">
         <v>2</v>
       </c>
@@ -1562,7 +1573,7 @@
       </c>
       <c r="C20" s="9"/>
     </row>
-    <row r="21" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" s="7" customFormat="1">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -1571,7 +1582,7 @@
       </c>
       <c r="C21" s="9"/>
     </row>
-    <row r="22" spans="1:3" s="7" customFormat="1" ht="187.15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" s="7" customFormat="1" ht="187.2">
       <c r="A22" s="6" t="s">
         <v>4</v>
       </c>
@@ -1582,7 +1593,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" s="7" customFormat="1" ht="72">
       <c r="A23" s="7" t="s">
         <v>5</v>
       </c>
@@ -1591,32 +1602,32 @@
       </c>
       <c r="C23" s="9"/>
     </row>
-    <row r="24" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" s="7" customFormat="1">
       <c r="A24" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="9"/>
     </row>
-    <row r="25" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" s="7" customFormat="1">
       <c r="A25" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="9"/>
     </row>
-    <row r="26" spans="1:3" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" s="30" customFormat="1">
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
     </row>
-    <row r="27" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1">
       <c r="A27" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="8"/>
     </row>
-    <row r="28" spans="1:3" s="7" customFormat="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1">
       <c r="A28" s="7" t="s">
         <v>0</v>
       </c>
@@ -1625,7 +1636,7 @@
       </c>
       <c r="C28" s="9"/>
     </row>
-    <row r="29" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" s="7" customFormat="1">
       <c r="A29" s="7" t="s">
         <v>1</v>
       </c>
@@ -1634,7 +1645,7 @@
       </c>
       <c r="C29" s="9"/>
     </row>
-    <row r="30" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" s="7" customFormat="1">
       <c r="A30" s="7" t="s">
         <v>2</v>
       </c>
@@ -1643,7 +1654,7 @@
       </c>
       <c r="C30" s="9"/>
     </row>
-    <row r="31" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" s="7" customFormat="1">
       <c r="A31" s="7" t="s">
         <v>3</v>
       </c>
@@ -1652,7 +1663,7 @@
       </c>
       <c r="C31" s="9"/>
     </row>
-    <row r="32" spans="1:3" s="7" customFormat="1" ht="288" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" s="7" customFormat="1" ht="288">
       <c r="A32" s="6" t="s">
         <v>4</v>
       </c>
@@ -1663,7 +1674,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" s="7" customFormat="1">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -1672,14 +1683,14 @@
       </c>
       <c r="C33" s="9"/>
     </row>
-    <row r="34" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" s="7" customFormat="1">
       <c r="A34" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B34" s="11"/>
       <c r="C34" s="9"/>
     </row>
-    <row r="35" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" s="7" customFormat="1">
       <c r="A35" s="7" t="s">
         <v>7</v>
       </c>
@@ -1705,16 +1716,16 @@
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="40.5546875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="33" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="19" customFormat="1" ht="23.45" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" s="19" customFormat="1" ht="23.4">
       <c r="A1" s="15" t="s">
         <v>8</v>
       </c>
@@ -1723,13 +1734,13 @@
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
     </row>
-    <row r="2" spans="1:5" s="23" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="23" customFormat="1">
       <c r="B2" s="21"/>
       <c r="C2" s="20"/>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
     </row>
-    <row r="3" spans="1:5" s="23" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="23" customFormat="1">
       <c r="A3" s="20" t="s">
         <v>9</v>
       </c>
@@ -1744,7 +1755,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="23" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="23" customFormat="1">
       <c r="A4" s="20" t="s">
         <v>11</v>
       </c>
@@ -1759,7 +1770,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="26" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="26" customFormat="1">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
@@ -1772,21 +1783,21 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="39" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="39" customFormat="1">
       <c r="A6" s="37"/>
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
       <c r="D6" s="37"/>
       <c r="E6" s="37"/>
     </row>
-    <row r="7" spans="1:5" s="45" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" s="45" customFormat="1" ht="18" thickBot="1">
       <c r="A7" s="45" t="s">
         <v>56</v>
       </c>
       <c r="B7" s="46"/>
       <c r="C7" s="47"/>
     </row>
-    <row r="8" spans="1:5" s="7" customFormat="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" s="7" customFormat="1" ht="15" thickTop="1">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1795,7 +1806,7 @@
       </c>
       <c r="C8" s="9"/>
     </row>
-    <row r="9" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" s="7" customFormat="1">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -1804,7 +1815,7 @@
       </c>
       <c r="C9" s="9"/>
     </row>
-    <row r="10" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" s="7" customFormat="1">
       <c r="A10" s="7" t="s">
         <v>2</v>
       </c>
@@ -1813,7 +1824,7 @@
       </c>
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="7" customFormat="1">
       <c r="A11" s="7" t="s">
         <v>3</v>
       </c>
@@ -1822,7 +1833,7 @@
       </c>
       <c r="C11" s="9"/>
     </row>
-    <row r="12" spans="1:5" s="7" customFormat="1" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" s="7" customFormat="1" ht="244.8">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -1833,7 +1844,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" s="7" customFormat="1">
       <c r="A13" s="7" t="s">
         <v>5</v>
       </c>
@@ -1844,7 +1855,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" s="7" customFormat="1">
       <c r="B14" s="11" t="s">
         <v>77</v>
       </c>
@@ -1852,7 +1863,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" s="7" customFormat="1">
       <c r="B15" s="11" t="s">
         <v>78</v>
       </c>
@@ -1860,7 +1871,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" s="7" customFormat="1">
       <c r="B16" s="11" t="s">
         <v>80</v>
       </c>
@@ -1868,7 +1879,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" s="7" customFormat="1">
       <c r="B17" s="11" t="s">
         <v>80</v>
       </c>
@@ -1876,7 +1887,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" s="7" customFormat="1">
       <c r="B18" s="11" t="s">
         <v>65</v>
       </c>
@@ -1884,7 +1895,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" s="7" customFormat="1">
       <c r="A19" s="7" t="s">
         <v>6</v>
       </c>
@@ -1893,25 +1904,25 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" s="7" customFormat="1">
       <c r="A20" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20"/>
     </row>
-    <row r="21" spans="1:3" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" s="30" customFormat="1">
       <c r="B21" s="31"/>
       <c r="C21" s="31"/>
     </row>
-    <row r="22" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>93</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="8"/>
     </row>
-    <row r="23" spans="1:3" s="7" customFormat="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1">
       <c r="A23" s="6" t="s">
         <v>0</v>
       </c>
@@ -1920,7 +1931,7 @@
       </c>
       <c r="C23" s="9"/>
     </row>
-    <row r="24" spans="1:3" s="7" customFormat="1" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" s="7" customFormat="1" ht="28.8">
       <c r="A24" s="6" t="s">
         <v>1</v>
       </c>
@@ -1929,7 +1940,7 @@
       </c>
       <c r="C24" s="43"/>
     </row>
-    <row r="25" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" s="7" customFormat="1">
       <c r="A25" s="7" t="s">
         <v>2</v>
       </c>
@@ -1938,7 +1949,7 @@
       </c>
       <c r="C25" s="9"/>
     </row>
-    <row r="26" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" s="7" customFormat="1">
       <c r="A26" s="7" t="s">
         <v>3</v>
       </c>
@@ -1947,7 +1958,7 @@
       </c>
       <c r="C26" s="9"/>
     </row>
-    <row r="27" spans="1:3" s="7" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" s="7" customFormat="1" ht="201.6">
       <c r="A27" s="6" t="s">
         <v>4</v>
       </c>
@@ -1958,7 +1969,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" s="7" customFormat="1">
       <c r="A28" s="6" t="s">
         <v>5</v>
       </c>
@@ -1969,35 +1980,35 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" s="7" customFormat="1">
       <c r="A29" s="6"/>
     </row>
-    <row r="30" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" s="7" customFormat="1">
       <c r="A30" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="9"/>
     </row>
-    <row r="31" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" s="7" customFormat="1">
       <c r="A31" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="9"/>
     </row>
-    <row r="32" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" s="30" customFormat="1">
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
     </row>
-    <row r="33" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1">
       <c r="A33" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="8"/>
     </row>
-    <row r="34" spans="1:3" s="7" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1">
       <c r="A34" s="7" t="s">
         <v>0</v>
       </c>
@@ -2006,7 +2017,7 @@
       </c>
       <c r="C34" s="9"/>
     </row>
-    <row r="35" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" s="7" customFormat="1">
       <c r="A35" s="7" t="s">
         <v>1</v>
       </c>
@@ -2015,7 +2026,7 @@
       </c>
       <c r="C35" s="9"/>
     </row>
-    <row r="36" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" s="7" customFormat="1">
       <c r="A36" s="7" t="s">
         <v>2</v>
       </c>
@@ -2024,7 +2035,7 @@
       </c>
       <c r="C36" s="9"/>
     </row>
-    <row r="37" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" s="7" customFormat="1">
       <c r="A37" s="7" t="s">
         <v>3</v>
       </c>
@@ -2033,7 +2044,7 @@
       </c>
       <c r="C37" s="9"/>
     </row>
-    <row r="38" spans="1:3" s="7" customFormat="1" ht="240" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" s="7" customFormat="1" ht="216">
       <c r="A38" s="6" t="s">
         <v>4</v>
       </c>
@@ -2044,7 +2055,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" s="7" customFormat="1">
       <c r="A39" s="7" t="s">
         <v>5</v>
       </c>
@@ -2053,7 +2064,7 @@
       </c>
       <c r="C39" s="44"/>
     </row>
-    <row r="40" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" s="7" customFormat="1">
       <c r="B40" s="11" t="s">
         <v>77</v>
       </c>
@@ -2061,7 +2072,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" s="7" customFormat="1">
       <c r="B41" s="11" t="s">
         <v>84</v>
       </c>
@@ -2069,7 +2080,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" s="7" customFormat="1">
       <c r="B42" s="11" t="s">
         <v>85</v>
       </c>
@@ -2077,32 +2088,32 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" s="7" customFormat="1">
       <c r="A43" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B43" s="11"/>
       <c r="C43" s="9"/>
     </row>
-    <row r="44" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" s="7" customFormat="1">
       <c r="A44" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B44" s="11"/>
       <c r="C44" s="9"/>
     </row>
-    <row r="45" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" s="30" customFormat="1">
       <c r="B45" s="32"/>
       <c r="C45" s="32"/>
     </row>
-    <row r="46" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1">
       <c r="A46" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B46" s="12"/>
       <c r="C46" s="8"/>
     </row>
-    <row r="47" spans="1:3" s="7" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1">
       <c r="A47" s="7" t="s">
         <v>0</v>
       </c>
@@ -2111,7 +2122,7 @@
       </c>
       <c r="C47" s="9"/>
     </row>
-    <row r="48" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" s="7" customFormat="1">
       <c r="A48" s="7" t="s">
         <v>1</v>
       </c>
@@ -2120,7 +2131,7 @@
       </c>
       <c r="C48" s="9"/>
     </row>
-    <row r="49" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" s="7" customFormat="1">
       <c r="A49" s="7" t="s">
         <v>2</v>
       </c>
@@ -2129,7 +2140,7 @@
       </c>
       <c r="C49" s="9"/>
     </row>
-    <row r="50" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" s="7" customFormat="1">
       <c r="A50" s="7" t="s">
         <v>3</v>
       </c>
@@ -2138,7 +2149,7 @@
       </c>
       <c r="C50" s="9"/>
     </row>
-    <row r="51" spans="1:3" s="7" customFormat="1" ht="375" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" s="7" customFormat="1" ht="316.8">
       <c r="A51" s="6" t="s">
         <v>4</v>
       </c>
@@ -2149,7 +2160,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" s="7" customFormat="1">
       <c r="A52" s="7" t="s">
         <v>5</v>
       </c>
@@ -2160,7 +2171,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" s="7" customFormat="1">
       <c r="B53" s="11" t="s">
         <v>104</v>
       </c>
@@ -2168,7 +2179,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" s="7" customFormat="1">
       <c r="B54" s="11" t="s">
         <v>103</v>
       </c>
@@ -2176,7 +2187,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" s="7" customFormat="1">
       <c r="B55" s="11" t="s">
         <v>84</v>
       </c>
@@ -2184,7 +2195,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" s="7" customFormat="1">
       <c r="B56" s="11" t="s">
         <v>85</v>
       </c>
@@ -2192,7 +2203,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" s="7" customFormat="1">
       <c r="B57" s="11" t="s">
         <v>65</v>
       </c>
@@ -2200,32 +2211,32 @@
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" s="7" customFormat="1">
       <c r="A58" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B58" s="11"/>
       <c r="C58" s="9"/>
     </row>
-    <row r="59" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" s="7" customFormat="1">
       <c r="A59" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B59" s="11"/>
       <c r="C59" s="9"/>
     </row>
-    <row r="60" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" s="30" customFormat="1">
       <c r="B60" s="32"/>
       <c r="C60" s="32"/>
     </row>
-    <row r="61" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1">
       <c r="A61" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B61" s="12"/>
       <c r="C61" s="8"/>
     </row>
-    <row r="62" spans="1:3" s="7" customFormat="1" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" s="7" customFormat="1" ht="43.8" thickTop="1">
       <c r="A62" s="6" t="s">
         <v>0</v>
       </c>
@@ -2234,7 +2245,7 @@
       </c>
       <c r="C62" s="9"/>
     </row>
-    <row r="63" spans="1:3" s="7" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" s="7" customFormat="1" ht="187.2">
       <c r="A63" s="6" t="s">
         <v>1</v>
       </c>
@@ -2243,7 +2254,7 @@
       </c>
       <c r="C63" s="43"/>
     </row>
-    <row r="64" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" s="7" customFormat="1">
       <c r="A64" s="7" t="s">
         <v>2</v>
       </c>
@@ -2252,7 +2263,7 @@
       </c>
       <c r="C64" s="9"/>
     </row>
-    <row r="65" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" s="7" customFormat="1">
       <c r="A65" s="7" t="s">
         <v>3</v>
       </c>
@@ -2261,7 +2272,7 @@
       </c>
       <c r="C65" s="9"/>
     </row>
-    <row r="66" spans="1:3" s="7" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" s="7" customFormat="1" ht="172.8">
       <c r="A66" s="6" t="s">
         <v>4</v>
       </c>
@@ -2272,7 +2283,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="67" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" s="7" customFormat="1">
       <c r="A67" s="7" t="s">
         <v>5</v>
       </c>
@@ -2283,7 +2294,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" s="7" customFormat="1">
       <c r="B68" s="60" t="s">
         <v>65</v>
       </c>
@@ -2291,32 +2302,32 @@
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" s="7" customFormat="1">
       <c r="A69" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B69" s="11"/>
       <c r="C69" s="9"/>
     </row>
-    <row r="70" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" s="7" customFormat="1">
       <c r="A70" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B70" s="11"/>
       <c r="C70" s="9"/>
     </row>
-    <row r="71" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" s="30" customFormat="1">
       <c r="B71" s="32"/>
       <c r="C71" s="32"/>
     </row>
-    <row r="72" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1">
       <c r="A72" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B72" s="12"/>
       <c r="C72" s="8"/>
     </row>
-    <row r="73" spans="1:3" s="7" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1">
       <c r="A73" s="6" t="s">
         <v>0</v>
       </c>
@@ -2325,7 +2336,7 @@
       </c>
       <c r="C73" s="9"/>
     </row>
-    <row r="74" spans="1:3" s="7" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" s="7" customFormat="1" ht="187.2">
       <c r="A74" s="6" t="s">
         <v>1</v>
       </c>
@@ -2334,7 +2345,7 @@
       </c>
       <c r="C74" s="43"/>
     </row>
-    <row r="75" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" s="7" customFormat="1">
       <c r="A75" s="7" t="s">
         <v>2</v>
       </c>
@@ -2343,7 +2354,7 @@
       </c>
       <c r="C75" s="9"/>
     </row>
-    <row r="76" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" s="7" customFormat="1">
       <c r="A76" s="7" t="s">
         <v>3</v>
       </c>
@@ -2352,7 +2363,7 @@
       </c>
       <c r="C76" s="9"/>
     </row>
-    <row r="77" spans="1:3" s="7" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" s="7" customFormat="1" ht="201.6">
       <c r="A77" s="6" t="s">
         <v>4</v>
       </c>
@@ -2363,7 +2374,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="78" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" s="7" customFormat="1">
       <c r="A78" s="6" t="s">
         <v>5</v>
       </c>
@@ -2374,7 +2385,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="79" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" s="7" customFormat="1">
       <c r="A79" s="6"/>
       <c r="B79" t="s">
         <v>87</v>
@@ -2383,32 +2394,32 @@
         <v>91</v>
       </c>
     </row>
-    <row r="80" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" s="7" customFormat="1">
       <c r="A80" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B80" s="11"/>
       <c r="C80" s="9"/>
     </row>
-    <row r="81" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" s="7" customFormat="1">
       <c r="A81" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B81" s="11"/>
       <c r="C81" s="9"/>
     </row>
-    <row r="82" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" s="30" customFormat="1">
       <c r="B82" s="32"/>
       <c r="C82" s="32"/>
     </row>
-    <row r="83" spans="1:5" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" s="5" customFormat="1" ht="18" thickBot="1">
       <c r="A83" s="5" t="s">
         <v>73</v>
       </c>
       <c r="B83" s="12"/>
       <c r="C83" s="8"/>
     </row>
-    <row r="84" spans="1:5" s="7" customFormat="1" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" s="7" customFormat="1" ht="29.4" thickTop="1">
       <c r="A84" s="6" t="s">
         <v>0</v>
       </c>
@@ -2417,7 +2428,7 @@
       </c>
       <c r="C84" s="9"/>
     </row>
-    <row r="85" spans="1:5" s="7" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" s="7" customFormat="1" ht="115.2">
       <c r="A85" s="6" t="s">
         <v>1</v>
       </c>
@@ -2426,7 +2437,7 @@
       </c>
       <c r="C85" s="43"/>
     </row>
-    <row r="86" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" s="7" customFormat="1">
       <c r="A86" s="7" t="s">
         <v>2</v>
       </c>
@@ -2435,7 +2446,7 @@
       </c>
       <c r="C86" s="9"/>
     </row>
-    <row r="87" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" s="7" customFormat="1">
       <c r="A87" s="7" t="s">
         <v>3</v>
       </c>
@@ -2444,7 +2455,7 @@
       </c>
       <c r="C87" s="9"/>
     </row>
-    <row r="88" spans="1:5" s="7" customFormat="1" ht="270" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" s="7" customFormat="1" ht="244.8">
       <c r="A88" s="6" t="s">
         <v>4</v>
       </c>
@@ -2456,7 +2467,7 @@
       </c>
       <c r="E88" s="67"/>
     </row>
-    <row r="89" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" s="7" customFormat="1">
       <c r="A89" s="6" t="s">
         <v>5</v>
       </c>
@@ -2467,7 +2478,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="90" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" s="7" customFormat="1">
       <c r="A90" s="6"/>
       <c r="B90" s="14" t="s">
         <v>67</v>
@@ -2476,7 +2487,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="91" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" s="7" customFormat="1">
       <c r="A91" s="6"/>
       <c r="B91" s="14" t="s">
         <v>77</v>
@@ -2485,61 +2496,61 @@
         <v>105</v>
       </c>
     </row>
-    <row r="92" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" s="7" customFormat="1">
       <c r="A92" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B92" s="11"/>
       <c r="C92" s="9"/>
     </row>
-    <row r="93" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" s="7" customFormat="1">
       <c r="A93" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B93" s="11"/>
       <c r="C93" s="9"/>
     </row>
-    <row r="94" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" s="30" customFormat="1">
       <c r="B94" s="32"/>
       <c r="C94" s="32"/>
     </row>
-    <row r="95" spans="1:5" s="51" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" s="51" customFormat="1" ht="17.399999999999999">
       <c r="B95" s="52"/>
       <c r="C95" s="53"/>
     </row>
-    <row r="96" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" s="57" customFormat="1">
       <c r="A96" s="54"/>
       <c r="B96" s="55"/>
       <c r="C96" s="56"/>
     </row>
-    <row r="97" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" s="57" customFormat="1">
       <c r="A97" s="54"/>
       <c r="B97" s="55"/>
       <c r="C97" s="58"/>
     </row>
-    <row r="98" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" s="7" customFormat="1">
       <c r="B98" s="11"/>
       <c r="C98" s="9"/>
     </row>
-    <row r="99" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" s="7" customFormat="1">
       <c r="B99" s="11"/>
       <c r="C99" s="9"/>
     </row>
-    <row r="100" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" s="7" customFormat="1">
       <c r="A100" s="6"/>
       <c r="B100" s="14"/>
       <c r="C100" s="35"/>
     </row>
-    <row r="101" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" s="7" customFormat="1">
       <c r="A101" s="6"/>
       <c r="B101" s="28"/>
       <c r="C101" s="34"/>
     </row>
-    <row r="102" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" s="7" customFormat="1">
       <c r="B102" s="11"/>
       <c r="C102" s="9"/>
     </row>
-    <row r="103" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" s="7" customFormat="1">
       <c r="B103" s="11"/>
       <c r="C103" s="9"/>
     </row>
@@ -2578,19 +2589,19 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="40.5546875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="33" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="19" customFormat="1" ht="23.45" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" s="19" customFormat="1" ht="23.4">
       <c r="A1" s="15" t="s">
         <v>8</v>
       </c>
@@ -2599,13 +2610,13 @@
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
     </row>
-    <row r="2" spans="1:5" s="23" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="23" customFormat="1">
       <c r="B2" s="21"/>
       <c r="C2" s="20"/>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
     </row>
-    <row r="3" spans="1:5" s="23" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="23" customFormat="1">
       <c r="A3" s="20" t="s">
         <v>9</v>
       </c>
@@ -2622,7 +2633,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="23" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="23" customFormat="1">
       <c r="A4" s="20" t="s">
         <v>11</v>
       </c>
@@ -2639,7 +2650,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="26" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="26" customFormat="1">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
@@ -2654,21 +2665,21 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="39" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="39" customFormat="1">
       <c r="A6" s="37"/>
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
       <c r="D6" s="37"/>
       <c r="E6" s="37"/>
     </row>
-    <row r="7" spans="1:5" s="45" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" s="45" customFormat="1" ht="18" thickBot="1">
       <c r="A7" s="45" t="s">
         <v>56</v>
       </c>
       <c r="B7" s="46"/>
       <c r="C7" s="47"/>
     </row>
-    <row r="8" spans="1:5" s="7" customFormat="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" s="7" customFormat="1" ht="15" thickTop="1">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2677,7 +2688,7 @@
       </c>
       <c r="C8" s="9"/>
     </row>
-    <row r="9" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" s="7" customFormat="1">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -2686,7 +2697,7 @@
       </c>
       <c r="C9" s="9"/>
     </row>
-    <row r="10" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" s="7" customFormat="1">
       <c r="A10" s="7" t="s">
         <v>2</v>
       </c>
@@ -2695,7 +2706,7 @@
       </c>
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="7" customFormat="1">
       <c r="A11" s="7" t="s">
         <v>3</v>
       </c>
@@ -2704,7 +2715,7 @@
       </c>
       <c r="C11" s="9"/>
     </row>
-    <row r="12" spans="1:5" s="7" customFormat="1" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" s="7" customFormat="1" ht="244.8">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -2715,7 +2726,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" s="7" customFormat="1">
       <c r="A13" s="7" t="s">
         <v>5</v>
       </c>
@@ -2726,7 +2737,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" s="7" customFormat="1">
       <c r="B14" s="11" t="s">
         <v>77</v>
       </c>
@@ -2734,7 +2745,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" s="7" customFormat="1">
       <c r="B15" s="11" t="s">
         <v>78</v>
       </c>
@@ -2742,7 +2753,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" s="7" customFormat="1">
       <c r="B16" s="11" t="s">
         <v>80</v>
       </c>
@@ -2750,7 +2761,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" s="7" customFormat="1">
       <c r="B17" s="11" t="s">
         <v>80</v>
       </c>
@@ -2758,7 +2769,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" s="7" customFormat="1">
       <c r="B18" s="11" t="s">
         <v>65</v>
       </c>
@@ -2766,7 +2777,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" s="7" customFormat="1">
       <c r="A19" s="7" t="s">
         <v>6</v>
       </c>
@@ -2777,7 +2788,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" s="7" customFormat="1">
       <c r="A20" s="7" t="s">
         <v>7</v>
       </c>
@@ -2786,18 +2797,18 @@
       </c>
       <c r="C20"/>
     </row>
-    <row r="21" spans="1:3" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" s="30" customFormat="1">
       <c r="B21" s="31"/>
       <c r="C21" s="31"/>
     </row>
-    <row r="22" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>93</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="8"/>
     </row>
-    <row r="23" spans="1:3" s="7" customFormat="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1">
       <c r="A23" s="6" t="s">
         <v>0</v>
       </c>
@@ -2806,7 +2817,7 @@
       </c>
       <c r="C23" s="9"/>
     </row>
-    <row r="24" spans="1:3" s="7" customFormat="1" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" s="7" customFormat="1" ht="28.8">
       <c r="A24" s="6" t="s">
         <v>1</v>
       </c>
@@ -2815,7 +2826,7 @@
       </c>
       <c r="C24" s="43"/>
     </row>
-    <row r="25" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" s="7" customFormat="1">
       <c r="A25" s="7" t="s">
         <v>2</v>
       </c>
@@ -2824,7 +2835,7 @@
       </c>
       <c r="C25" s="9"/>
     </row>
-    <row r="26" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" s="7" customFormat="1">
       <c r="A26" s="7" t="s">
         <v>3</v>
       </c>
@@ -2833,7 +2844,7 @@
       </c>
       <c r="C26" s="9"/>
     </row>
-    <row r="27" spans="1:3" s="7" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" s="7" customFormat="1" ht="201.6">
       <c r="A27" s="6" t="s">
         <v>4</v>
       </c>
@@ -2844,7 +2855,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" s="7" customFormat="1">
       <c r="A28" s="6" t="s">
         <v>5</v>
       </c>
@@ -2855,35 +2866,35 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" s="7" customFormat="1">
       <c r="A29" s="6"/>
     </row>
-    <row r="30" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" s="7" customFormat="1">
       <c r="A30" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="9"/>
     </row>
-    <row r="31" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" s="7" customFormat="1">
       <c r="A31" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="9"/>
     </row>
-    <row r="32" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" s="30" customFormat="1">
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
     </row>
-    <row r="33" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1">
       <c r="A33" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="8"/>
     </row>
-    <row r="34" spans="1:3" s="7" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1">
       <c r="A34" s="7" t="s">
         <v>0</v>
       </c>
@@ -2892,7 +2903,7 @@
       </c>
       <c r="C34" s="9"/>
     </row>
-    <row r="35" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" s="7" customFormat="1">
       <c r="A35" s="7" t="s">
         <v>1</v>
       </c>
@@ -2901,7 +2912,7 @@
       </c>
       <c r="C35" s="9"/>
     </row>
-    <row r="36" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" s="7" customFormat="1">
       <c r="A36" s="7" t="s">
         <v>2</v>
       </c>
@@ -2910,7 +2921,7 @@
       </c>
       <c r="C36" s="9"/>
     </row>
-    <row r="37" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" s="7" customFormat="1">
       <c r="A37" s="7" t="s">
         <v>3</v>
       </c>
@@ -2919,7 +2930,7 @@
       </c>
       <c r="C37" s="9"/>
     </row>
-    <row r="38" spans="1:3" s="7" customFormat="1" ht="240" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" s="7" customFormat="1" ht="216">
       <c r="A38" s="6" t="s">
         <v>4</v>
       </c>
@@ -2930,7 +2941,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" s="7" customFormat="1">
       <c r="A39" s="7" t="s">
         <v>5</v>
       </c>
@@ -2939,7 +2950,7 @@
       </c>
       <c r="C39" s="44"/>
     </row>
-    <row r="40" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" s="7" customFormat="1">
       <c r="B40" s="11" t="s">
         <v>77</v>
       </c>
@@ -2947,7 +2958,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" s="7" customFormat="1">
       <c r="B41" s="11" t="s">
         <v>84</v>
       </c>
@@ -2955,7 +2966,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" s="7" customFormat="1">
       <c r="B42" s="11" t="s">
         <v>85</v>
       </c>
@@ -2963,32 +2974,32 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" s="7" customFormat="1">
       <c r="A43" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B43" s="11"/>
       <c r="C43" s="9"/>
     </row>
-    <row r="44" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" s="7" customFormat="1">
       <c r="A44" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B44" s="11"/>
       <c r="C44" s="9"/>
     </row>
-    <row r="45" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" s="30" customFormat="1">
       <c r="B45" s="32"/>
       <c r="C45" s="32"/>
     </row>
-    <row r="46" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1">
       <c r="A46" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B46" s="12"/>
       <c r="C46" s="8"/>
     </row>
-    <row r="47" spans="1:3" s="7" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1">
       <c r="A47" s="7" t="s">
         <v>0</v>
       </c>
@@ -2997,7 +3008,7 @@
       </c>
       <c r="C47" s="9"/>
     </row>
-    <row r="48" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" s="7" customFormat="1">
       <c r="A48" s="7" t="s">
         <v>1</v>
       </c>
@@ -3006,7 +3017,7 @@
       </c>
       <c r="C48" s="9"/>
     </row>
-    <row r="49" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" s="7" customFormat="1">
       <c r="A49" s="7" t="s">
         <v>2</v>
       </c>
@@ -3015,7 +3026,7 @@
       </c>
       <c r="C49" s="9"/>
     </row>
-    <row r="50" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" s="7" customFormat="1">
       <c r="A50" s="7" t="s">
         <v>3</v>
       </c>
@@ -3024,7 +3035,7 @@
       </c>
       <c r="C50" s="9"/>
     </row>
-    <row r="51" spans="1:3" s="7" customFormat="1" ht="375" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" s="7" customFormat="1" ht="316.8">
       <c r="A51" s="6" t="s">
         <v>4</v>
       </c>
@@ -3035,7 +3046,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" s="7" customFormat="1">
       <c r="A52" s="7" t="s">
         <v>5</v>
       </c>
@@ -3046,7 +3057,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" s="7" customFormat="1">
       <c r="B53" s="11" t="s">
         <v>104</v>
       </c>
@@ -3054,7 +3065,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" s="7" customFormat="1">
       <c r="B54" s="11" t="s">
         <v>103</v>
       </c>
@@ -3062,7 +3073,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" s="7" customFormat="1">
       <c r="B55" s="11" t="s">
         <v>84</v>
       </c>
@@ -3070,7 +3081,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" s="7" customFormat="1">
       <c r="B56" s="11" t="s">
         <v>85</v>
       </c>
@@ -3078,7 +3089,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" s="7" customFormat="1">
       <c r="B57" s="11" t="s">
         <v>65</v>
       </c>
@@ -3086,7 +3097,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" s="7" customFormat="1">
       <c r="A58" s="7" t="s">
         <v>6</v>
       </c>
@@ -3095,7 +3106,7 @@
       </c>
       <c r="C58" s="9"/>
     </row>
-    <row r="59" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" s="7" customFormat="1">
       <c r="A59" s="7" t="s">
         <v>7</v>
       </c>
@@ -3104,18 +3115,18 @@
       </c>
       <c r="C59" s="9"/>
     </row>
-    <row r="60" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" s="30" customFormat="1">
       <c r="B60" s="32"/>
       <c r="C60" s="32"/>
     </row>
-    <row r="61" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1">
       <c r="A61" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B61" s="12"/>
       <c r="C61" s="8"/>
     </row>
-    <row r="62" spans="1:3" s="7" customFormat="1" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" s="7" customFormat="1" ht="43.8" thickTop="1">
       <c r="A62" s="6" t="s">
         <v>0</v>
       </c>
@@ -3124,7 +3135,7 @@
       </c>
       <c r="C62" s="9"/>
     </row>
-    <row r="63" spans="1:3" s="7" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" s="7" customFormat="1" ht="187.2">
       <c r="A63" s="6" t="s">
         <v>1</v>
       </c>
@@ -3133,7 +3144,7 @@
       </c>
       <c r="C63" s="43"/>
     </row>
-    <row r="64" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" s="7" customFormat="1">
       <c r="A64" s="7" t="s">
         <v>2</v>
       </c>
@@ -3142,7 +3153,7 @@
       </c>
       <c r="C64" s="9"/>
     </row>
-    <row r="65" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" s="7" customFormat="1">
       <c r="A65" s="7" t="s">
         <v>3</v>
       </c>
@@ -3151,7 +3162,7 @@
       </c>
       <c r="C65" s="9"/>
     </row>
-    <row r="66" spans="1:3" s="7" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" s="7" customFormat="1" ht="172.8">
       <c r="A66" s="6" t="s">
         <v>4</v>
       </c>
@@ -3162,7 +3173,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="67" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" s="7" customFormat="1">
       <c r="A67" s="7" t="s">
         <v>5</v>
       </c>
@@ -3173,7 +3184,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" s="7" customFormat="1">
       <c r="B68" s="60" t="s">
         <v>65</v>
       </c>
@@ -3181,32 +3192,32 @@
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" s="7" customFormat="1">
       <c r="A69" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B69" s="11"/>
       <c r="C69" s="9"/>
     </row>
-    <row r="70" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" s="7" customFormat="1">
       <c r="A70" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B70" s="11"/>
       <c r="C70" s="9"/>
     </row>
-    <row r="71" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" s="30" customFormat="1">
       <c r="B71" s="32"/>
       <c r="C71" s="32"/>
     </row>
-    <row r="72" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1">
       <c r="A72" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B72" s="12"/>
       <c r="C72" s="8"/>
     </row>
-    <row r="73" spans="1:3" s="7" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1">
       <c r="A73" s="6" t="s">
         <v>0</v>
       </c>
@@ -3215,7 +3226,7 @@
       </c>
       <c r="C73" s="9"/>
     </row>
-    <row r="74" spans="1:3" s="7" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" s="7" customFormat="1" ht="187.2">
       <c r="A74" s="6" t="s">
         <v>1</v>
       </c>
@@ -3224,7 +3235,7 @@
       </c>
       <c r="C74" s="43"/>
     </row>
-    <row r="75" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" s="7" customFormat="1">
       <c r="A75" s="7" t="s">
         <v>2</v>
       </c>
@@ -3233,7 +3244,7 @@
       </c>
       <c r="C75" s="9"/>
     </row>
-    <row r="76" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" s="7" customFormat="1">
       <c r="A76" s="7" t="s">
         <v>3</v>
       </c>
@@ -3242,7 +3253,7 @@
       </c>
       <c r="C76" s="9"/>
     </row>
-    <row r="77" spans="1:3" s="7" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" s="7" customFormat="1" ht="201.6">
       <c r="A77" s="6" t="s">
         <v>4</v>
       </c>
@@ -3253,7 +3264,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="78" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" s="7" customFormat="1">
       <c r="A78" s="6" t="s">
         <v>5</v>
       </c>
@@ -3264,7 +3275,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="79" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" s="7" customFormat="1">
       <c r="A79" s="6"/>
       <c r="B79" t="s">
         <v>87</v>
@@ -3273,32 +3284,32 @@
         <v>91</v>
       </c>
     </row>
-    <row r="80" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" s="7" customFormat="1">
       <c r="A80" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B80" s="11"/>
       <c r="C80" s="9"/>
     </row>
-    <row r="81" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" s="7" customFormat="1">
       <c r="A81" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B81" s="11"/>
       <c r="C81" s="9"/>
     </row>
-    <row r="82" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" s="30" customFormat="1">
       <c r="B82" s="32"/>
       <c r="C82" s="32"/>
     </row>
-    <row r="83" spans="1:5" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" s="5" customFormat="1" ht="18" thickBot="1">
       <c r="A83" s="5" t="s">
         <v>73</v>
       </c>
       <c r="B83" s="12"/>
       <c r="C83" s="8"/>
     </row>
-    <row r="84" spans="1:5" s="7" customFormat="1" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" s="7" customFormat="1" ht="29.4" thickTop="1">
       <c r="A84" s="6" t="s">
         <v>0</v>
       </c>
@@ -3307,7 +3318,7 @@
       </c>
       <c r="C84" s="9"/>
     </row>
-    <row r="85" spans="1:5" s="7" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" s="7" customFormat="1" ht="115.2">
       <c r="A85" s="6" t="s">
         <v>1</v>
       </c>
@@ -3316,7 +3327,7 @@
       </c>
       <c r="C85" s="43"/>
     </row>
-    <row r="86" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" s="7" customFormat="1">
       <c r="A86" s="7" t="s">
         <v>2</v>
       </c>
@@ -3325,7 +3336,7 @@
       </c>
       <c r="C86" s="9"/>
     </row>
-    <row r="87" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" s="7" customFormat="1">
       <c r="A87" s="7" t="s">
         <v>3</v>
       </c>
@@ -3334,7 +3345,7 @@
       </c>
       <c r="C87" s="9"/>
     </row>
-    <row r="88" spans="1:5" s="7" customFormat="1" ht="270" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" s="7" customFormat="1" ht="244.8">
       <c r="A88" s="6" t="s">
         <v>4</v>
       </c>
@@ -3346,7 +3357,7 @@
       </c>
       <c r="E88" s="67"/>
     </row>
-    <row r="89" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" s="7" customFormat="1">
       <c r="A89" s="6" t="s">
         <v>5</v>
       </c>
@@ -3357,7 +3368,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="90" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" s="7" customFormat="1">
       <c r="A90" s="6"/>
       <c r="B90" s="14" t="s">
         <v>67</v>
@@ -3366,7 +3377,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="91" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" s="7" customFormat="1">
       <c r="A91" s="6"/>
       <c r="B91" s="14" t="s">
         <v>77</v>
@@ -3375,32 +3386,32 @@
         <v>105</v>
       </c>
     </row>
-    <row r="92" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" s="7" customFormat="1">
       <c r="A92" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B92" s="11"/>
       <c r="C92" s="9"/>
     </row>
-    <row r="93" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" s="7" customFormat="1">
       <c r="A93" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B93" s="11"/>
       <c r="C93" s="9"/>
     </row>
-    <row r="94" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" s="30" customFormat="1">
       <c r="B94" s="32"/>
       <c r="C94" s="32"/>
     </row>
-    <row r="95" spans="1:5" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" s="5" customFormat="1" ht="18" thickBot="1">
       <c r="A95" s="5" t="s">
         <v>61</v>
       </c>
       <c r="B95" s="12"/>
       <c r="C95" s="8"/>
     </row>
-    <row r="96" spans="1:5" s="7" customFormat="1" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" s="7" customFormat="1" ht="15" thickTop="1">
       <c r="A96" s="6" t="s">
         <v>0</v>
       </c>
@@ -3409,7 +3420,7 @@
       </c>
       <c r="C96" s="9"/>
     </row>
-    <row r="97" spans="1:3" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" s="7" customFormat="1" ht="72">
       <c r="A97" s="6" t="s">
         <v>1</v>
       </c>
@@ -3418,7 +3429,7 @@
       </c>
       <c r="C97" s="43"/>
     </row>
-    <row r="98" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" s="7" customFormat="1">
       <c r="A98" s="7" t="s">
         <v>2</v>
       </c>
@@ -3427,7 +3438,7 @@
       </c>
       <c r="C98" s="9"/>
     </row>
-    <row r="99" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" s="7" customFormat="1">
       <c r="A99" s="7" t="s">
         <v>3</v>
       </c>
@@ -3436,7 +3447,7 @@
       </c>
       <c r="C99" s="9"/>
     </row>
-    <row r="100" spans="1:3" s="7" customFormat="1" ht="360" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" s="7" customFormat="1" ht="302.39999999999998">
       <c r="A100" s="6" t="s">
         <v>4</v>
       </c>
@@ -3447,7 +3458,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="101" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" s="7" customFormat="1">
       <c r="A101" s="6" t="s">
         <v>5</v>
       </c>
@@ -3456,75 +3467,79 @@
       </c>
       <c r="C101" s="34"/>
     </row>
-    <row r="102" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" s="7" customFormat="1">
       <c r="A102" s="6"/>
       <c r="B102" t="s">
         <v>77</v>
       </c>
       <c r="C102" s="34"/>
     </row>
-    <row r="103" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" s="7" customFormat="1">
       <c r="A103" s="6"/>
       <c r="B103" t="s">
         <v>78</v>
       </c>
       <c r="C103" s="34"/>
     </row>
-    <row r="104" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" s="7" customFormat="1">
       <c r="A104" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B104" s="11"/>
+      <c r="B104" s="11" t="s">
+        <v>128</v>
+      </c>
       <c r="C104" s="9"/>
     </row>
-    <row r="105" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" s="7" customFormat="1">
       <c r="A105" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B105" s="11"/>
+      <c r="B105" s="11" t="s">
+        <v>127</v>
+      </c>
       <c r="C105" s="9"/>
     </row>
-    <row r="106" spans="1:3" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" s="49" customFormat="1">
       <c r="B106" s="50"/>
       <c r="C106" s="50"/>
     </row>
-    <row r="107" spans="1:3" s="51" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" s="51" customFormat="1" ht="17.399999999999999">
       <c r="B107" s="52"/>
       <c r="C107" s="53"/>
     </row>
-    <row r="108" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" s="57" customFormat="1">
       <c r="A108" s="54"/>
       <c r="B108" s="55"/>
       <c r="C108" s="56"/>
     </row>
-    <row r="109" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" s="57" customFormat="1">
       <c r="A109" s="54"/>
       <c r="B109" s="55"/>
       <c r="C109" s="58"/>
     </row>
-    <row r="110" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" s="7" customFormat="1">
       <c r="B110" s="11"/>
       <c r="C110" s="9"/>
     </row>
-    <row r="111" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" s="7" customFormat="1">
       <c r="B111" s="11"/>
       <c r="C111" s="9"/>
     </row>
-    <row r="112" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" s="7" customFormat="1">
       <c r="A112" s="6"/>
       <c r="B112" s="14"/>
       <c r="C112" s="35"/>
     </row>
-    <row r="113" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" s="7" customFormat="1">
       <c r="A113" s="6"/>
       <c r="B113" s="28"/>
       <c r="C113" s="34"/>
     </row>
-    <row r="114" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" s="7" customFormat="1">
       <c r="B114" s="11"/>
       <c r="C114" s="9"/>
     </row>
-    <row r="115" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" s="7" customFormat="1">
       <c r="B115" s="11"/>
       <c r="C115" s="9"/>
     </row>
